--- a/data/trans_orig/P1423-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1423-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>54471</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42237</v>
+        <v>40669</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69391</v>
+        <v>69841</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05279582349465428</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04093842463829866</v>
+        <v>0.03941842554148544</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06725726809997104</v>
+        <v>0.06769315557219256</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>145</v>
@@ -765,19 +765,19 @@
         <v>148833</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>127427</v>
+        <v>127835</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>172826</v>
+        <v>175088</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1131711614254665</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09689408234387376</v>
+        <v>0.09720472781620845</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1314152766741881</v>
+        <v>0.1331351174169298</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>201</v>
@@ -786,19 +786,19 @@
         <v>203303</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>178026</v>
+        <v>176375</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>232613</v>
+        <v>230559</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08662877451444669</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0758578203841901</v>
+        <v>0.07515435889320715</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09911793396795662</v>
+        <v>0.09824238163168202</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>977252</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>962332</v>
+        <v>961882</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>989486</v>
+        <v>991054</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9472041765053457</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.932742731900029</v>
+        <v>0.9323068444278075</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9590615753617013</v>
+        <v>0.9605815744585146</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1146</v>
@@ -836,19 +836,19 @@
         <v>1166280</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1142287</v>
+        <v>1140025</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1187686</v>
+        <v>1187278</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8868288385745335</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8685847233258119</v>
+        <v>0.8668648825830703</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9031059176561264</v>
+        <v>0.9027952721837916</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2128</v>
@@ -857,19 +857,19 @@
         <v>2143532</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2114222</v>
+        <v>2116276</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2168809</v>
+        <v>2170460</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9133712254855533</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9008820660320436</v>
+        <v>0.901757618368318</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9241421796158099</v>
+        <v>0.9248456411067929</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>31949</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22053</v>
+        <v>22845</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42941</v>
+        <v>45493</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01886687662831515</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01302252414594507</v>
+        <v>0.01349031772110144</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02535757961572708</v>
+        <v>0.02686445253903363</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -982,19 +982,19 @@
         <v>87724</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>70472</v>
+        <v>71103</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>108851</v>
+        <v>106669</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05525335401688499</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04438691828362824</v>
+        <v>0.044784323479395</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06856026234746249</v>
+        <v>0.06718564255667765</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>116</v>
@@ -1003,19 +1003,19 @@
         <v>119674</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>96864</v>
+        <v>99157</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>141159</v>
+        <v>142261</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03647380204690162</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02952194792834939</v>
+        <v>0.03022082035646781</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04302203699117442</v>
+        <v>0.04335779513012437</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1661464</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1650472</v>
+        <v>1647920</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1671360</v>
+        <v>1670568</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9811331233716849</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.974642420384273</v>
+        <v>0.9731355474609663</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9869774758540549</v>
+        <v>0.9865096822788985</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1470</v>
@@ -1053,19 +1053,19 @@
         <v>1499949</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1478822</v>
+        <v>1481004</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1517201</v>
+        <v>1516570</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.944746645983115</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9314397376525384</v>
+        <v>0.9328143574433224</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9556130817163724</v>
+        <v>0.955215676520605</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3087</v>
@@ -1074,19 +1074,19 @@
         <v>3161412</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3139927</v>
+        <v>3138825</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3184222</v>
+        <v>3181929</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9635261979530984</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9569779630088255</v>
+        <v>0.9566422048698756</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9704780520716506</v>
+        <v>0.9697791796435324</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>14954</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8738</v>
+        <v>8501</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23835</v>
+        <v>23078</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02711918643466828</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01584702934097848</v>
+        <v>0.01541776296052343</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04322544119197644</v>
+        <v>0.04185295207774584</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1199,19 +1199,19 @@
         <v>20565</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12956</v>
+        <v>12355</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31578</v>
+        <v>30517</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04316581866837786</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02719409568114541</v>
+        <v>0.02593250128530931</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06628199809034151</v>
+        <v>0.06405518430243295</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -1220,19 +1220,19 @@
         <v>35518</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25529</v>
+        <v>24860</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48282</v>
+        <v>49128</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03455707001968818</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02483752548465629</v>
+        <v>0.02418723432189936</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04697514526129207</v>
+        <v>0.04779802810268036</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>536454</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>527573</v>
+        <v>528330</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>542670</v>
+        <v>542907</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9728808135653317</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9567745588080236</v>
+        <v>0.9581470479222544</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9841529706590216</v>
+        <v>0.9845822370394769</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>433</v>
@@ -1270,19 +1270,19 @@
         <v>455847</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>444834</v>
+        <v>445895</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>463456</v>
+        <v>464057</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9568341813316221</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9337180019096585</v>
+        <v>0.935944815697567</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9728059043188547</v>
+        <v>0.9740674987146907</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>944</v>
@@ -1291,19 +1291,19 @@
         <v>992302</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>979538</v>
+        <v>978692</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1002291</v>
+        <v>1002960</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9654429299803118</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.953024854738708</v>
+        <v>0.9522019718973196</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9751624745153437</v>
+        <v>0.9758127656781007</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>101374</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>83286</v>
+        <v>82770</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>120883</v>
+        <v>123551</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0309392511740386</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02541883440745864</v>
+        <v>0.02526144435520953</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03689358837622989</v>
+        <v>0.03770762250023565</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>248</v>
@@ -1416,19 +1416,19 @@
         <v>257122</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>225895</v>
+        <v>226724</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>288825</v>
+        <v>291879</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07608960321522913</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06684867282896477</v>
+        <v>0.06709415924874697</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0854714691691327</v>
+        <v>0.08637525400442105</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>352</v>
@@ -1437,19 +1437,19 @@
         <v>358496</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>321106</v>
+        <v>321667</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>396371</v>
+        <v>394230</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0538626126121917</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04824503621807337</v>
+        <v>0.04832922847621215</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05955317873674727</v>
+        <v>0.05923153005602007</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3175169</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3155660</v>
+        <v>3152992</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3193257</v>
+        <v>3193773</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9690607488259614</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9631064116237695</v>
+        <v>0.9622923774997643</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9745811655925414</v>
+        <v>0.9747385556447903</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3049</v>
@@ -1487,19 +1487,19 @@
         <v>3122075</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3090372</v>
+        <v>3087318</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3153302</v>
+        <v>3152473</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9239103967847708</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.914528530830867</v>
+        <v>0.9136247459955792</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9331513271710346</v>
+        <v>0.932905840751253</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6159</v>
@@ -1508,19 +1508,19 @@
         <v>6297245</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6259370</v>
+        <v>6261511</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6334635</v>
+        <v>6334074</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9461373873878083</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.940446821263253</v>
+        <v>0.9407684699439801</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9517549637819267</v>
+        <v>0.9516707715237879</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>67241</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50984</v>
+        <v>52676</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>86202</v>
+        <v>84580</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06899065115471703</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0523109167824399</v>
+        <v>0.05404671911014965</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0884446452856725</v>
+        <v>0.08678005307104622</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>243</v>
@@ -1872,19 +1872,19 @@
         <v>256925</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>231902</v>
+        <v>228523</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>289517</v>
+        <v>285256</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1920511752516123</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1733458098539592</v>
+        <v>0.1708206830328673</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2164129506412329</v>
+        <v>0.2132282101197225</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>304</v>
@@ -1893,19 +1893,19 @@
         <v>324167</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>291648</v>
+        <v>293951</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>359281</v>
+        <v>361348</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1401838391636286</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1261213909468619</v>
+        <v>0.1271173678118257</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1553687677905324</v>
+        <v>0.1562627872099609</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>907402</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>888441</v>
+        <v>890063</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>923659</v>
+        <v>921967</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.931009348845283</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9115553547143275</v>
+        <v>0.9132199469289537</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.94768908321756</v>
+        <v>0.9459532808898503</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1004</v>
@@ -1943,19 +1943,19 @@
         <v>1080872</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1048280</v>
+        <v>1052541</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1105895</v>
+        <v>1109274</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8079488247483877</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7835870493587671</v>
+        <v>0.7867717898802775</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8266541901460408</v>
+        <v>0.8291793169671328</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1851</v>
@@ -1964,19 +1964,19 @@
         <v>1988273</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1953159</v>
+        <v>1951092</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2020792</v>
+        <v>2018489</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8598161608363715</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8446312322094672</v>
+        <v>0.8437372127900391</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.873878609053138</v>
+        <v>0.8728826321881743</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>60401</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46560</v>
+        <v>45281</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80054</v>
+        <v>79564</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03075491820545478</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02370706118194012</v>
+        <v>0.02305584254551774</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04076139130360279</v>
+        <v>0.04051190342013771</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>122</v>
@@ -2089,19 +2089,19 @@
         <v>130002</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>109887</v>
+        <v>108841</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>153161</v>
+        <v>153694</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07409236672287316</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06262824201040054</v>
+        <v>0.06203207771996869</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08729153374419593</v>
+        <v>0.08759500945213977</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>176</v>
@@ -2110,19 +2110,19 @@
         <v>190403</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>165173</v>
+        <v>162863</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>219433</v>
+        <v>224653</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05120362882610006</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04441858531298008</v>
+        <v>0.04379733751867605</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05901037497740406</v>
+        <v>0.06041427385634896</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1903556</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1883903</v>
+        <v>1884393</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1917397</v>
+        <v>1918676</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9692450817945453</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9592386086963973</v>
+        <v>0.9594880965798623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9762929388180599</v>
+        <v>0.9769441574544823</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1511</v>
@@ -2160,19 +2160,19 @@
         <v>1624590</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1601431</v>
+        <v>1600898</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1644705</v>
+        <v>1645751</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9259076332771269</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9127084662558038</v>
+        <v>0.9124049905478602</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.937371757989599</v>
+        <v>0.9379679222800307</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3313</v>
@@ -2181,19 +2181,19 @@
         <v>3528146</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3499116</v>
+        <v>3493896</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3553376</v>
+        <v>3555686</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9487963711738999</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.940989625022596</v>
+        <v>0.9395857261436511</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.95558141468702</v>
+        <v>0.9562026624813241</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>13280</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6164</v>
+        <v>7130</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22975</v>
+        <v>24044</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02759944986104063</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01280934843920626</v>
+        <v>0.01481839887071209</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04774766755574712</v>
+        <v>0.04996782546746854</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -2306,19 +2306,19 @@
         <v>17567</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9632</v>
+        <v>10817</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28953</v>
+        <v>28078</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03830417286580116</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02100137959326251</v>
+        <v>0.02358573066344159</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06312853693423572</v>
+        <v>0.06122026661527031</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -2327,19 +2327,19 @@
         <v>30848</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20471</v>
+        <v>20597</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43654</v>
+        <v>44651</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03282338402058129</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02178157511376583</v>
+        <v>0.02191652453801711</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04645003857682668</v>
+        <v>0.0475110304444689</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>467901</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>458206</v>
+        <v>457137</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>475017</v>
+        <v>474051</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9724005501389593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9522523324442532</v>
+        <v>0.9500321745325314</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9871906515607938</v>
+        <v>0.985181601129288</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>396</v>
@@ -2377,19 +2377,19 @@
         <v>441064</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>429678</v>
+        <v>430553</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>448999</v>
+        <v>447814</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9616958271341989</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9368714630657641</v>
+        <v>0.9387797333847295</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9789986204067374</v>
+        <v>0.9764142693365584</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>823</v>
@@ -2398,19 +2398,19 @@
         <v>908965</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>896159</v>
+        <v>895162</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>919342</v>
+        <v>919216</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9671766159794187</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9535499614231734</v>
+        <v>0.9524889695555312</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9782184248862341</v>
+        <v>0.9780834754619829</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>140923</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>118387</v>
+        <v>118098</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>169458</v>
+        <v>168765</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04120816891917994</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03461837528260348</v>
+        <v>0.03453379719176079</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04955216018330218</v>
+        <v>0.0493497660893437</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>381</v>
@@ -2523,19 +2523,19 @@
         <v>404495</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>363639</v>
+        <v>365112</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>442249</v>
+        <v>445836</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1139094679061057</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1024039627977553</v>
+        <v>0.1028190307346062</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1245415277328467</v>
+        <v>0.1255514972874503</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>507</v>
@@ -2544,19 +2544,19 @@
         <v>545418</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>499059</v>
+        <v>502600</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>595029</v>
+        <v>602198</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07824318433019176</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07159276515548378</v>
+        <v>0.07210068546089163</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08536017024567204</v>
+        <v>0.0863885915362301</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3278859</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3250324</v>
+        <v>3251017</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3301395</v>
+        <v>3301684</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9587918310808201</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9504478398166977</v>
+        <v>0.9506502339106563</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9653816247173965</v>
+        <v>0.9654662028082392</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2911</v>
@@ -2594,19 +2594,19 @@
         <v>3146525</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3108771</v>
+        <v>3105184</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3187381</v>
+        <v>3185908</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8860905320938943</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8754584722671531</v>
+        <v>0.8744485027125495</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8975960372022447</v>
+        <v>0.8971809692653937</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5987</v>
@@ -2615,19 +2615,19 @@
         <v>6425383</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6375772</v>
+        <v>6368603</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6471742</v>
+        <v>6468201</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9217568156698083</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9146398297543279</v>
+        <v>0.9136114084637698</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9284072348445161</v>
+        <v>0.9278993145391083</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>39540</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28197</v>
+        <v>28442</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53723</v>
+        <v>53654</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05241582902232573</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0373792644370086</v>
+        <v>0.03770386118767782</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0712173875437018</v>
+        <v>0.07112686350291871</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>151</v>
@@ -2979,19 +2979,19 @@
         <v>167516</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>142127</v>
+        <v>145315</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>192092</v>
+        <v>192565</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1684155670502559</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1428897026029819</v>
+        <v>0.1460952674887188</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1931234113564754</v>
+        <v>0.1935990271075729</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>191</v>
@@ -3000,19 +3000,19 @@
         <v>207056</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>181830</v>
+        <v>180967</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>235452</v>
+        <v>238737</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1183848747313561</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1039619624840376</v>
+        <v>0.1034686167985834</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1346206298644607</v>
+        <v>0.1364984728208882</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>714807</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>700624</v>
+        <v>700693</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>726150</v>
+        <v>725905</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9475841709776742</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9287826124562982</v>
+        <v>0.9288731364970813</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9626207355629914</v>
+        <v>0.9622961388123221</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>741</v>
@@ -3050,19 +3050,19 @@
         <v>827144</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>802568</v>
+        <v>802095</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>852533</v>
+        <v>849345</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8315844329497442</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8068765886435243</v>
+        <v>0.8064009728924274</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8571102973970181</v>
+        <v>0.8539047325112813</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1463</v>
@@ -3071,19 +3071,19 @@
         <v>1541951</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1513555</v>
+        <v>1510270</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1567177</v>
+        <v>1568040</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8816151252686438</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8653793701355393</v>
+        <v>0.8635015271791119</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8960380375159624</v>
+        <v>0.8965313832014168</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>60541</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45407</v>
+        <v>46434</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77594</v>
+        <v>76657</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02915700027567363</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02186846683193826</v>
+        <v>0.02236293919547277</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03736959686496249</v>
+        <v>0.03691854002519347</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>160</v>
@@ -3196,19 +3196,19 @@
         <v>173998</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>147543</v>
+        <v>148914</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>202640</v>
+        <v>202816</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08751070755606088</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07420544386144227</v>
+        <v>0.07489494499067725</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1019159919635824</v>
+        <v>0.1020046777359319</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>218</v>
@@ -3217,19 +3217,19 @@
         <v>234539</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>207870</v>
+        <v>206786</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>267238</v>
+        <v>264273</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05770156869913579</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05114058037999505</v>
+        <v>0.05087383465344083</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06574622741655185</v>
+        <v>0.06501690773553494</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2015844</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1998791</v>
+        <v>1999728</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2030978</v>
+        <v>2029951</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9708429997243264</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9626304031350374</v>
+        <v>0.9630814599748062</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9781315331680617</v>
+        <v>0.9776370608045266</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1748</v>
@@ -3267,19 +3267,19 @@
         <v>1814302</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1785660</v>
+        <v>1785484</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1840757</v>
+        <v>1839386</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9124892924439392</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8980840080364175</v>
+        <v>0.8979953222640681</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9257945561385577</v>
+        <v>0.9251050550093227</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3642</v>
@@ -3288,19 +3288,19 @@
         <v>3830146</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3797447</v>
+        <v>3800412</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3856815</v>
+        <v>3857899</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9422984313008642</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.934253772583449</v>
+        <v>0.934983092264465</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9488594196200051</v>
+        <v>0.9491261653465591</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>10489</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5180</v>
+        <v>4971</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20292</v>
+        <v>19988</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01917901676867438</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009471845256059293</v>
+        <v>0.009089104032746768</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03710505953969115</v>
+        <v>0.03654787258939723</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -3413,19 +3413,19 @@
         <v>17277</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10172</v>
+        <v>9703</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29003</v>
+        <v>27796</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03146123660821375</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01852275883932043</v>
+        <v>0.01767034437807016</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05281529268105411</v>
+        <v>0.05061671769144582</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -3434,19 +3434,19 @@
         <v>27765</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18233</v>
+        <v>18398</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41029</v>
+        <v>41804</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02533275680307179</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.016635124164843</v>
+        <v>0.01678650660549442</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03743402757839657</v>
+        <v>0.03814101203175422</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>536397</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>526594</v>
+        <v>526898</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>541706</v>
+        <v>541915</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9808209832313256</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9628949404603089</v>
+        <v>0.9634521274106026</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9905281547439406</v>
+        <v>0.9909108959672532</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>511</v>
@@ -3484,19 +3484,19 @@
         <v>531863</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>520137</v>
+        <v>521344</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>538968</v>
+        <v>539437</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9685387633917862</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9471847073189456</v>
+        <v>0.9493832823085543</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9814772411606796</v>
+        <v>0.9823296556219299</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1003</v>
@@ -3505,19 +3505,19 @@
         <v>1068262</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1054998</v>
+        <v>1054223</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1077794</v>
+        <v>1077629</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9746672431969282</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9625659724216032</v>
+        <v>0.9618589879682451</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.983364875835157</v>
+        <v>0.9832134933945055</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>110570</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>91603</v>
+        <v>91441</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>131348</v>
+        <v>132353</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03273597255243702</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02712060083000327</v>
+        <v>0.02707254365991176</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03888771744236134</v>
+        <v>0.0391854415005285</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>326</v>
@@ -3630,19 +3630,19 @@
         <v>358790</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>322992</v>
+        <v>320834</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>394549</v>
+        <v>397155</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1015799034531832</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09144472106365321</v>
+        <v>0.09083385271833674</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1117037776192548</v>
+        <v>0.1124416286078841</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>433</v>
@@ -3651,19 +3651,19 @@
         <v>469360</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>426310</v>
+        <v>424514</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>511797</v>
+        <v>513041</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06792752018604492</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06169715162616864</v>
+        <v>0.06143727202485024</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07406914180697283</v>
+        <v>0.07424915922486028</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3267048</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3246270</v>
+        <v>3245265</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3286015</v>
+        <v>3286177</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.967264027447563</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9611122825576387</v>
+        <v>0.9608145584994715</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9728793991699968</v>
+        <v>0.9729274563400883</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3000</v>
@@ -3701,19 +3701,19 @@
         <v>3173310</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3137551</v>
+        <v>3134945</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3209108</v>
+        <v>3211266</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8984200965468169</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8882962223807455</v>
+        <v>0.8875583713921159</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9085552789363469</v>
+        <v>0.9091661472816632</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6108</v>
@@ -3722,19 +3722,19 @@
         <v>6440358</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6397921</v>
+        <v>6396677</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6483408</v>
+        <v>6485204</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9320724798139551</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.925930858193027</v>
+        <v>0.9257508407751398</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.938302848373831</v>
+        <v>0.9385627279751497</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>57107</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45339</v>
+        <v>44785</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>73168</v>
+        <v>71772</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09871109260326141</v>
+        <v>0.0987110926032614</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07836938215977332</v>
+        <v>0.07741231189773307</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1264719606268811</v>
+        <v>0.1240597508105222</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>279</v>
@@ -4086,19 +4086,19 @@
         <v>163533</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>146704</v>
+        <v>147190</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>181392</v>
+        <v>182048</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1989360033705334</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1784634742352128</v>
+        <v>0.1790546544536975</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2206614154510211</v>
+        <v>0.2214592335168254</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>349</v>
@@ -4107,19 +4107,19 @@
         <v>220640</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>198604</v>
+        <v>199299</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>243873</v>
+        <v>246280</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1575363078484331</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1418026177458</v>
+        <v>0.1422985042393838</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.174124393303947</v>
+        <v>0.1758432246195308</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>521422</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>505361</v>
+        <v>506757</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>533190</v>
+        <v>533744</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9012889073967387</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8735280393731185</v>
+        <v>0.8759402491894782</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9216306178402266</v>
+        <v>0.9225876881022668</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1148</v>
@@ -4157,19 +4157,19 @@
         <v>658505</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>640646</v>
+        <v>639990</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>675334</v>
+        <v>674848</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8010639966294666</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7793385845489791</v>
+        <v>0.7785407664831747</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8215365257647873</v>
+        <v>0.8209453455463028</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1769</v>
@@ -4178,19 +4178,19 @@
         <v>1179927</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1156694</v>
+        <v>1154287</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1201963</v>
+        <v>1201268</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8424636921515669</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8258756066960531</v>
+        <v>0.8241567753804689</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8581973822541998</v>
+        <v>0.8577014957606159</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>120124</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>101042</v>
+        <v>99570</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>146561</v>
+        <v>144440</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05385350181365951</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04529872602119372</v>
+        <v>0.04463900708213125</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06570590600416125</v>
+        <v>0.06475465480603169</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>343</v>
@@ -4303,19 +4303,19 @@
         <v>239609</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>212845</v>
+        <v>215077</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>264311</v>
+        <v>264838</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1103481801809183</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09802250152176542</v>
+        <v>0.09905044517067421</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.121724282721766</v>
+        <v>0.1219670032777552</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>460</v>
@@ -4324,19 +4324,19 @@
         <v>359733</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>327671</v>
+        <v>325842</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>395009</v>
+        <v>392153</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08172112039662725</v>
+        <v>0.08172112039662727</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07443747154962103</v>
+        <v>0.07402203909222979</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08973471808224491</v>
+        <v>0.08908602553756559</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2110442</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2084005</v>
+        <v>2086126</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2129524</v>
+        <v>2130996</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9461464981863406</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9342940939958391</v>
+        <v>0.9352453451939684</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9547012739788068</v>
+        <v>0.9553609929178689</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2578</v>
@@ -4374,19 +4374,19 @@
         <v>1931783</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1907081</v>
+        <v>1906554</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1958547</v>
+        <v>1956315</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8896518198190818</v>
+        <v>0.8896518198190816</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8782757172782341</v>
+        <v>0.8780329967222447</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9019774984782346</v>
+        <v>0.9009495548293258</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4453</v>
@@ -4395,19 +4395,19 @@
         <v>4042226</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4006950</v>
+        <v>4009806</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4074288</v>
+        <v>4076117</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9182788796033727</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.910265281917755</v>
+        <v>0.9109139744624343</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.925562528450379</v>
+        <v>0.92597796090777</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>37816</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26247</v>
+        <v>26808</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52293</v>
+        <v>52726</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.0531429583548267</v>
+        <v>0.05314295835482669</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03688446983375725</v>
+        <v>0.03767336267777528</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07348766452879604</v>
+        <v>0.07409684302558159</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -4520,19 +4520,19 @@
         <v>52820</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41378</v>
+        <v>40909</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67125</v>
+        <v>67048</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07187601267306729</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05630659856098368</v>
+        <v>0.05566723399269623</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09134182274469686</v>
+        <v>0.0912364844009167</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>105</v>
@@ -4541,19 +4541,19 @@
         <v>90636</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>73393</v>
+        <v>73597</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>108724</v>
+        <v>111686</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06266030068131662</v>
+        <v>0.0626603006813166</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0507397611871731</v>
+        <v>0.0508807387081039</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07516509413813076</v>
+        <v>0.07721283143062795</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>673771</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>659294</v>
+        <v>658861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>685340</v>
+        <v>684779</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9468570416451733</v>
+        <v>0.9468570416451731</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9265123354712038</v>
+        <v>0.9259031569744183</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9631155301662426</v>
+        <v>0.9623266373222248</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>935</v>
@@ -4591,19 +4591,19 @@
         <v>682057</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>667752</v>
+        <v>667829</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>693499</v>
+        <v>693968</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9281239873269326</v>
+        <v>0.9281239873269327</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9086581772553031</v>
+        <v>0.9087635155990833</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9436934014390161</v>
+        <v>0.9443327660073038</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1580</v>
@@ -4612,19 +4612,19 @@
         <v>1355828</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1337740</v>
+        <v>1334778</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1373071</v>
+        <v>1372867</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9373396993186833</v>
+        <v>0.9373396993186832</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9248349058618692</v>
+        <v>0.922787168569372</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9492602388128271</v>
+        <v>0.9491192612918959</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>215047</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>185446</v>
+        <v>189518</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>246840</v>
+        <v>247442</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06108102663447587</v>
+        <v>0.06108102663447589</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05267320338341357</v>
+        <v>0.053829985994399</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07011131602249615</v>
+        <v>0.07028230713377195</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>691</v>
@@ -4737,19 +4737,19 @@
         <v>455962</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>421839</v>
+        <v>423714</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>490971</v>
+        <v>494698</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1222973624000087</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1131448882280563</v>
+        <v>0.1136479146915516</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1316874707035955</v>
+        <v>0.1326871583765751</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>914</v>
@@ -4758,19 +4758,19 @@
         <v>671009</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>630458</v>
+        <v>628722</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>718188</v>
+        <v>717370</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09256586904452382</v>
+        <v>0.09256586904452384</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08697189850087091</v>
+        <v>0.08673232491308855</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09907426562686346</v>
+        <v>0.09896138040430445</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3305636</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3273843</v>
+        <v>3273241</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3335237</v>
+        <v>3331165</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9389189733655241</v>
+        <v>0.9389189733655242</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9298886839775037</v>
+        <v>0.9297176928662281</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9473267966165864</v>
+        <v>0.9461700140056009</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4661</v>
@@ -4808,19 +4808,19 @@
         <v>3272345</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3237336</v>
+        <v>3233609</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3306468</v>
+        <v>3304593</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8777026375999913</v>
+        <v>0.8777026375999912</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8683125292964047</v>
+        <v>0.8673128416234249</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8868551117719439</v>
+        <v>0.8863520853084483</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7802</v>
@@ -4829,19 +4829,19 @@
         <v>6577981</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6530802</v>
+        <v>6531620</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6618532</v>
+        <v>6620268</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9074341309554761</v>
+        <v>0.9074341309554763</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9009257343731364</v>
+        <v>0.9010386195956958</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9130281014991291</v>
+        <v>0.9132676750869114</v>
       </c>
     </row>
     <row r="15">
